--- a/src/main/resources/danh_sach_sinh_vien_theo_lop_hoc_phan.xlsx
+++ b/src/main/resources/danh_sach_sinh_vien_theo_lop_hoc_phan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vando\Documents\GitHub\admin_be\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F0BC18-1088-4109-A25D-8612287D1C92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134365C2-B9BE-4EBD-8A27-7EDCF9FBC131}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{58D2EB32-CDDF-4C7B-AF38-C6206755CBF6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>BẢNG ĐIỂM DANH</t>
   </si>
@@ -120,24 +120,6 @@
     <t xml:space="preserve">Buổi 18: </t>
   </si>
   <si>
-    <t>Mã lớp: #{subjectClassId}</t>
-  </si>
-  <si>
-    <t>Mã học phần: #{subjectClass}</t>
-  </si>
-  <si>
-    <t>Tên học phần: #{subjectClassName}</t>
-  </si>
-  <si>
-    <t>Học kỳ: #{term}</t>
-  </si>
-  <si>
-    <t>Năm học: #{year}</t>
-  </si>
-  <si>
-    <t>Giảng viên: #{teacherName}</t>
-  </si>
-  <si>
     <t>${studentId}</t>
   </si>
   <si>
@@ -154,6 +136,54 @@
   </si>
   <si>
     <t>${sex}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã lớp:  </t>
+  </si>
+  <si>
+    <t>#{subjectClassId}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã học phần: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #{subjectId}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tên học phần:  </t>
+  </si>
+  <si>
+    <t>#{subjectName}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Học kỳ:  </t>
+  </si>
+  <si>
+    <t>#{term}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Năm học:  </t>
+  </si>
+  <si>
+    <t>#{year}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giảng viên:  </t>
+  </si>
+  <si>
+    <t>#{teacherName}</t>
+  </si>
+  <si>
+    <t>${diemChuyenCan}</t>
+  </si>
+  <si>
+    <t>${diemBaiTap}</t>
+  </si>
+  <si>
+    <t>${diemKiemTra}</t>
+  </si>
+  <si>
+    <t>${diemThi}</t>
   </si>
 </sst>
 </file>
@@ -202,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -220,6 +250,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -543,25 +579,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BD620E-89E9-4E26-B8AF-7896024D32C8}">
   <dimension ref="A1:AC617"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="18.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="16.85546875" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" style="1" customWidth="1"/>
@@ -572,61 +608,66 @@
     <col min="21" max="21" width="16.5703125" style="1" customWidth="1"/>
     <col min="22" max="22" width="19" style="1" customWidth="1"/>
     <col min="23" max="23" width="23.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="18" style="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" customWidth="1"/>
+    <col min="24" max="24" width="24.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="23" style="1" customWidth="1"/>
     <col min="26" max="26" width="17.85546875" style="1" customWidth="1"/>
     <col min="27" max="27" width="16.42578125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="28" max="28" width="18.140625" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
     </row>
     <row r="2" spans="1:29" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>31</v>
+      <c r="A2" s="8" t="s">
+        <v>37</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
+      <c r="J2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="11"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -646,21 +687,25 @@
       <c r="AB2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>32</v>
+      <c r="A3" s="8" t="s">
+        <v>39</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="B3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
+      <c r="J3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="11"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -680,10 +725,12 @@
       <c r="AB3" s="5"/>
     </row>
     <row r="4" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>33</v>
+      <c r="A4" s="8" t="s">
+        <v>41</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -691,9 +738,11 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="4" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -714,42 +763,44 @@
       <c r="AB4" s="5"/>
     </row>
     <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
     </row>
     <row r="6" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1</v>
@@ -836,19 +887,31 @@
     </row>
     <row r="7" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -17932,14 +17995,13 @@
       <c r="Z617" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A1:AB1"/>
-    <mergeCell ref="E5:V5"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:W5"/>
+    <mergeCell ref="X5:AB5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
